--- a/dtpu_configurations/only_integer32/30mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_7x7/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.013265945017337799</v>
+        <v>0.018882926553487778</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005560136865824461</v>
+        <v>0.007152443286031485</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004276454448699951</v>
+        <v>0.005273983348160982</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0034997090697288513</v>
+        <v>0.0040679918602108955</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>8.432269532931969E-5</v>
+        <v>0.0012678317725658417</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0013536218320950866</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12674568593502045</v>
+        <v>0.12733709812164307</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.412969946861267</v>
+        <v>1.4235010147094727</v>
       </c>
     </row>
   </sheetData>
